--- a/8. Harmonising standards/01_Project organisation/03_Project Documentation/Formular_Projektsonderabrechnung_Simple.xlsx
+++ b/8. Harmonising standards/01_Project organisation/03_Project Documentation/Formular_Projektsonderabrechnung_Simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sxDaten\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\01_Project organisation\03_Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217299BE-EEBD-4A34-B4BA-49390A29B513}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC59DA1-83BF-4CCA-A02A-A83429F233B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{59CE7F71-93D6-4922-87C0-A5C407BF9C6A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>PLAN</t>
   </si>
@@ -732,16 +732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>486834</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3307292</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>89956</xdr:rowOff>
+      <xdr:rowOff>179914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>635001</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>693207</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -756,8 +756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7175501" y="4153956"/>
-          <a:ext cx="7239000" cy="1756835"/>
+          <a:off x="5032375" y="4243914"/>
+          <a:ext cx="8731249" cy="1989669"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -813,6 +813,32 @@
               </a:solidFill>
             </a:rPr>
             <a:t> Abrechung folgt der Gliederung des Releaseplanes !</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Jede Leistungsposition muss eindeutig nur Datenintegration, DataFactory oder Sonstiges umfassen -  um den korrekten MyF Artikel anzusprechen.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dem MyF Angebot wird der Releaseplan beigefügt als Anlage -  das Angebot differenziert nur Datenintegration, DataFactory, Sonstiges, Reisekosten</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1269,7 +1295,7 @@
   <dimension ref="A1:CM57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3354,7 +3380,7 @@
     <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
       <c r="D52" s="13">
-        <f t="shared" ref="D52:R52" si="13">SUM(D15:D51)</f>
+        <f t="shared" ref="D52:E52" si="13">SUM(D15:D51)</f>
         <v>0</v>
       </c>
       <c r="E52" s="13">

--- a/8. Harmonising standards/01_Project organisation/03_Project Documentation/Formular_Projektsonderabrechnung_Simple.xlsx
+++ b/8. Harmonising standards/01_Project organisation/03_Project Documentation/Formular_Projektsonderabrechnung_Simple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sxDaten\GitHub\DataFactory-Knowledge-Center\8. Harmonising standards\01_Project organisation\03_Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC59DA1-83BF-4CCA-A02A-A83429F233B3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C01A651-73C7-4321-9F33-5BA31269DD60}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{59CE7F71-93D6-4922-87C0-A5C407BF9C6A}"/>
   </bookViews>
@@ -1295,22 +1295,22 @@
   <dimension ref="A1:CM57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.59765625" customWidth="1"/>
-    <col min="4" max="4" width="7.53125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.59765625" customWidth="1"/>
-    <col min="6" max="6" width="3.73046875" customWidth="1"/>
-    <col min="7" max="18" width="9.9296875" customWidth="1"/>
-    <col min="19" max="19" width="2.796875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="82.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
     </row>
-    <row r="2" spans="1:91" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:91" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1496,7 +1496,7 @@
       <c r="CL2" s="1"/>
       <c r="CM2" s="1"/>
     </row>
-    <row r="3" spans="1:91" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:91" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>17</v>
@@ -1591,7 +1591,7 @@
       <c r="CL3" s="1"/>
       <c r="CM3" s="1"/>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="36" t="s">
         <v>15</v>
@@ -1688,7 +1688,7 @@
       <c r="CL4" s="1"/>
       <c r="CM4" s="1"/>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="36" t="s">
         <v>2</v>
@@ -1785,7 +1785,7 @@
       <c r="CL5" s="1"/>
       <c r="CM5" s="1"/>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="36" t="s">
         <v>4</v>
@@ -1882,7 +1882,7 @@
       <c r="CL6" s="1"/>
       <c r="CM6" s="1"/>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="37" t="s">
         <v>6</v>
@@ -1979,7 +1979,7 @@
       <c r="CL7" s="1"/>
       <c r="CM7" s="1"/>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="36" t="s">
         <v>5</v>
@@ -2076,7 +2076,7 @@
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
     </row>
-    <row r="9" spans="1:91" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:91" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="D9" s="34"/>
@@ -2129,7 +2129,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:91" s="8" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:91" s="8" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="D10" s="7"/>
@@ -2182,7 +2182,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:91" s="8" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:91" s="8" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="D11" s="7"/>
@@ -2235,7 +2235,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:91" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:91" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="D12" s="7"/>
@@ -2252,7 +2252,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="G13" s="17" t="s">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="U13"/>
     </row>
-    <row r="14" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
       <c r="G14" s="51">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="U14"/>
     </row>
-    <row r="15" spans="1:91" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:91" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="41" t="s">
         <v>10</v>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="U15"/>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="40" t="s">
         <v>13</v>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="U16" s="48"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="42"/>
       <c r="C17" s="30"/>
@@ -2459,7 +2459,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="42"/>
       <c r="C18" s="30"/>
@@ -2486,7 +2486,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="42"/>
       <c r="C19" s="30"/>
@@ -2513,7 +2513,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="42"/>
       <c r="C20" s="30"/>
@@ -2540,7 +2540,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="42"/>
       <c r="C21" s="30"/>
@@ -2567,7 +2567,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="42"/>
       <c r="C22" s="30"/>
@@ -2594,7 +2594,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="42"/>
       <c r="C23" s="30"/>
@@ -2621,7 +2621,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="42"/>
       <c r="C24" s="30"/>
@@ -2648,7 +2648,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="42"/>
       <c r="C25" s="30"/>
@@ -2675,7 +2675,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="42"/>
       <c r="C26" s="30"/>
@@ -2702,7 +2702,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="42"/>
       <c r="C27" s="30"/>
@@ -2729,7 +2729,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="42"/>
       <c r="C28" s="30"/>
@@ -2756,7 +2756,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="42"/>
       <c r="C29" s="30"/>
@@ -2783,7 +2783,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="42"/>
       <c r="C30" s="30"/>
@@ -2810,7 +2810,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="42"/>
       <c r="C31" s="30"/>
@@ -2837,7 +2837,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="42"/>
       <c r="C32" s="30"/>
@@ -2864,7 +2864,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="42"/>
       <c r="C33" s="30"/>
@@ -2891,7 +2891,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="42"/>
       <c r="C34" s="30"/>
@@ -2918,7 +2918,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="42"/>
       <c r="C35" s="30"/>
@@ -2945,7 +2945,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="42"/>
       <c r="C36" s="30"/>
@@ -2972,7 +2972,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="42"/>
       <c r="C37" s="30"/>
@@ -2999,7 +2999,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="42"/>
       <c r="C38" s="30"/>
@@ -3026,7 +3026,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="42"/>
       <c r="C39" s="30"/>
@@ -3053,7 +3053,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="42"/>
       <c r="C40" s="30"/>
@@ -3080,7 +3080,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="42"/>
       <c r="C41" s="30"/>
@@ -3107,7 +3107,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="42"/>
       <c r="C42" s="30"/>
@@ -3134,7 +3134,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="42"/>
       <c r="C43" s="30"/>
@@ -3161,7 +3161,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="42"/>
       <c r="C44" s="30"/>
@@ -3188,7 +3188,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="42"/>
       <c r="C45" s="30"/>
@@ -3215,7 +3215,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="42"/>
       <c r="C46" s="30"/>
@@ -3242,7 +3242,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="42"/>
       <c r="C47" s="30"/>
@@ -3269,7 +3269,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="42"/>
       <c r="C48" s="30"/>
@@ -3296,7 +3296,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="42"/>
       <c r="C49" s="30"/>
@@ -3323,7 +3323,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="42"/>
       <c r="C50" s="30"/>
@@ -3350,7 +3350,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="43"/>
       <c r="C51" s="32"/>
@@ -3377,7 +3377,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="D52" s="13">
         <f t="shared" ref="D52:E52" si="13">SUM(D15:D51)</f>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="E54" s="52" t="s">
         <v>16</v>
@@ -3462,7 +3462,7 @@
       <c r="Q54" s="49"/>
       <c r="R54" s="49"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="G55" s="49"/>
       <c r="H55" s="49"/>
@@ -3477,7 +3477,7 @@
       <c r="Q55" s="49"/>
       <c r="R55" s="49"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G56" s="49"/>
       <c r="H56" s="49"/>
       <c r="I56" s="49"/>
@@ -3491,7 +3491,7 @@
       <c r="Q56" s="49"/>
       <c r="R56" s="49"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G57" s="49"/>
       <c r="H57" s="49"/>
       <c r="I57" s="49"/>
@@ -3523,8 +3523,8 @@
       <formula1>"PLAN,IST"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>